--- a/data/train_data/vegf_testdata/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics_Key.xlsx
+++ b/data/train_data/vegf_testdata/VEGFA165_VEGFR2_NRP1_fitted_binding_kinetics_Key.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwnetid-my.sharepoint.com/personal/ltukei_uw_edu/Documents/Desktop/GitHub/Data_extraction_kinetic_signaling_data/data/train_data/vegf_testdata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A649523C-BBD1-4F22-99E6-713EB9A41322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{A649523C-BBD1-4F22-99E6-713EB9A41322}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EA120E2F-5089-480F-B46F-CF09395DFD62}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="1920" windowWidth="17280" windowHeight="10548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="2295" yWindow="1920" windowWidth="15570" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -472,15 +472,15 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.6640625" customWidth="1"/>
+    <col min="1" max="1" width="19.7109375" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" customWidth="1"/>
+    <col min="3" max="3" width="11.28515625" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -558,7 +558,7 @@
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -601,7 +601,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -644,7 +644,7 @@
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
@@ -656,7 +656,7 @@
       <c r="N5" s="2"/>
       <c r="O5" s="2"/>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
@@ -668,7 +668,7 @@
       <c r="N6" s="2"/>
       <c r="O6" s="2"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
@@ -680,7 +680,7 @@
       <c r="N7" s="2"/>
       <c r="O7" s="2"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
@@ -692,7 +692,7 @@
       <c r="N8" s="2"/>
       <c r="O8" s="2"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
@@ -704,7 +704,7 @@
       <c r="N9" s="2"/>
       <c r="O9" s="2"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
@@ -716,7 +716,7 @@
       <c r="N10" s="2"/>
       <c r="O10" s="2"/>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
@@ -742,15 +742,15 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="18.6640625" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.7109375" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -788,7 +788,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>17</v>
       </c>
@@ -834,7 +834,7 @@
       <c r="O2" s="2"/>
       <c r="P2" s="2"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>17</v>
       </c>
@@ -871,7 +871,7 @@
       <c r="O3" s="2"/>
       <c r="P3" s="2"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
@@ -908,7 +908,7 @@
       <c r="O4" s="2"/>
       <c r="P4" s="2"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>17</v>
       </c>
@@ -945,7 +945,7 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>17</v>
       </c>
@@ -982,7 +982,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -1028,7 +1028,7 @@
       <c r="O7" s="2"/>
       <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -1065,7 +1065,7 @@
       <c r="O8" s="2"/>
       <c r="P8" s="2"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>18</v>
       </c>
@@ -1102,7 +1102,7 @@
       <c r="O9" s="2"/>
       <c r="P9" s="2"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1139,7 @@
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -1176,7 +1176,7 @@
       <c r="O11" s="2"/>
       <c r="P11" s="2"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1222,7 +1222,7 @@
       <c r="O12" s="2"/>
       <c r="P12" s="2"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -1259,7 +1259,7 @@
       <c r="O13" s="2"/>
       <c r="P13" s="2"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -1296,7 +1296,7 @@
       <c r="O14" s="2"/>
       <c r="P14" s="2"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>18</v>
       </c>
@@ -1333,7 +1333,7 @@
       <c r="O15" s="2"/>
       <c r="P15" s="2"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>18</v>
       </c>
@@ -1370,7 +1370,7 @@
       <c r="O16" s="2"/>
       <c r="P16" s="2"/>
     </row>
-    <row r="17" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
@@ -1382,7 +1382,7 @@
       <c r="O17" s="2"/>
       <c r="P17" s="2"/>
     </row>
-    <row r="18" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -1394,7 +1394,7 @@
       <c r="O18" s="2"/>
       <c r="P18" s="2"/>
     </row>
-    <row r="19" spans="7:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="7:16" x14ac:dyDescent="0.25">
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
